--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_PONTA DO SOL.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_PONTA DO SOL.xlsx
@@ -597,64 +597,64 @@
         <v>2940</v>
       </c>
       <c r="H2" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I2" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J2" t="n">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N2" t="n">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="T2" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>1916</v>
+        <v>1879</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1868</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
